--- a/METADADOS TREASUREMAP.xlsx
+++ b/METADADOS TREASUREMAP.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="77">
   <si>
     <t>TABELA</t>
   </si>
@@ -158,77 +161,797 @@
   </si>
   <si>
     <t>Resultado do cálculo</t>
+  </si>
+  <si>
+    <t>perfil_a</t>
+  </si>
+  <si>
+    <t>usuario_id</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY ()</t>
+  </si>
+  <si>
+    <t>ID de identificação</t>
+  </si>
+  <si>
+    <t>perfil_c</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>liquidez</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>Liquidez desejada</t>
+  </si>
+  <si>
+    <t>Valores possíveis: 'S' (Seca), 'I' (Imediata), 'G' (Geral), 'C' (Corrente) e 'PNO' (Prefiro não optar)</t>
+  </si>
+  <si>
+    <t>aversao_ao_risco</t>
+  </si>
+  <si>
+    <t>Nível de aversão aos riscos</t>
+  </si>
+  <si>
+    <t>Valores possíveis: 'A' (Alta), 'M' (Moderada), 'B' (Baixa) e 'I' (Inexistente)</t>
+  </si>
+  <si>
+    <t>ausencia_impostos</t>
+  </si>
+  <si>
+    <t>Ausência de impostos</t>
+  </si>
+  <si>
+    <t>Valores possíveis: 'S' (Sim) e 'N' (Não)</t>
+  </si>
+  <si>
+    <t>disponibilidade_financeira</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>Disponibilidade financeira</t>
+  </si>
+  <si>
+    <t>perfil_d</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>Índice desejado</t>
+  </si>
+  <si>
+    <t>Valores possíveis: 'IPCA' (IPCA), 'IGPM' (IGP-M), 'PIB' (PIB) e SELIC (Selic)</t>
+  </si>
+  <si>
+    <t>tp_perfil</t>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+  </si>
+  <si>
+    <t>Tipo de perfil</t>
+  </si>
+  <si>
+    <t>Valores possíveis: 'A' (Amplo), 'D' (Devedor), 'C' (Credor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="9">
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -418,20 +1141,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -459,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -473,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -487,7 +1214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -501,7 +1228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -515,7 +1242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -529,7 +1256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -543,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -557,7 +1284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -571,7 +1298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -585,7 +1312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -599,7 +1326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -613,7 +1340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -627,7 +1354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -641,7 +1368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -655,7 +1382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -669,63 +1396,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -739,7 +1466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -753,7 +1480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -767,7 +1494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -781,7 +1508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -795,7 +1522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -809,7 +1536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -823,7 +1550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
@@ -837,7 +1564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
@@ -851,7 +1578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customHeight="1" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
@@ -865,7 +1592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
@@ -879,7 +1606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
@@ -893,7 +1620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -907,7 +1634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customHeight="1" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -921,7 +1648,287 @@
         <v>48</v>
       </c>
     </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:4">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:4">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:4">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>